--- a/Output/28_02_2023/CSD_UL258129.xlsx
+++ b/Output/28_02_2023/CSD_UL258129.xlsx
@@ -31,13 +31,13 @@
     <x:t>UL258129</x:t>
   </x:si>
   <x:si>
-    <x:t>Desarrollo de programas informáticos</x:t>
+    <x:t>Desarrollo de software informáticoDesarrollo de software informático...Desarrollo de software para computadora...No se han podido cargar todos los resultadosReintentarIntentándolo de nuevo...</x:t>
   </x:si>
   <x:si>
     <x:t>CSD</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> un nuevo programa informático</x:t>
+    <x:t>un nuevo programa de computadora</x:t>
   </x:si>
 </x:sst>
 </file>
